--- a/biology/Botanique/Pierre_Casamayor/Pierre_Casamayor.xlsx
+++ b/biology/Botanique/Pierre_Casamayor/Pierre_Casamayor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Casamayor est un œnologue français.
 </t>
@@ -511,9 +523,11 @@
           <t>Carrière d'enseignant</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Casamayor commence sa carrière universitaire comme physicien de l'atmosphère, ses recherches concernent la transmission de l'infrarouge et ses conséquences sur l'effet de serre. Titulaire du DNO en 1975, il enseigne la climatologie et l'analyse sensorielle (cours de dégustation) au Diplôme National d'Œnologue de l'Université Paul Sabatier de Toulouse. Entre 2000 et 2003, il en est le directeur avant de prendre sa retraite de l'enseignement supérieur[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Casamayor commence sa carrière universitaire comme physicien de l'atmosphère, ses recherches concernent la transmission de l'infrarouge et ses conséquences sur l'effet de serre. Titulaire du DNO en 1975, il enseigne la climatologie et l'analyse sensorielle (cours de dégustation) au Diplôme National d'Œnologue de l'Université Paul Sabatier de Toulouse. Entre 2000 et 2003, il en est le directeur avant de prendre sa retraite de l'enseignement supérieur.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Carrière d'écrivain et de journaliste</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa position d'enseignant en dégustation et son goût pour la gastronomie l'amène à rencontrer de nombreuses personnalités du monde viticole. Il utilise son carnet d'adresse et sa plume pour écrire de nombreux ouvrages sur la dégustation ou les vignobles de la France méridionale (vignoble du sud-ouest, vignoble du Languedoc-Roussillon).
-Il collabore également à La Revue du vin de France[2] et au Guide Hubert.
+Il collabore également à La Revue du vin de France et au Guide Hubert.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Reconnaissance de la profession viticole</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est intronisé chevalier de nombreuses confréries viticoles, dont la confrérie du vin de Cahors, la Jurade de Saint-Émilion, la compagnie du Bontemps du Médoc et des Graves[3].
-Il reçoit le Prix Edmond de Rothschild pour son ouvrage sur la dégustation des vins, L'Ecole des Alliances[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est intronisé chevalier de nombreuses confréries viticoles, dont la confrérie du vin de Cahors, la Jurade de Saint-Émilion, la compagnie du Bontemps du Médoc et des Graves.
+Il reçoit le Prix Edmond de Rothschild pour son ouvrage sur la dégustation des vins, L'Ecole des Alliances.
 </t>
         </is>
       </c>
